--- a/FactoryClient/FactoryClient/bin/Debug/菜單.xlsx
+++ b/FactoryClient/FactoryClient/bin/Debug/菜單.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD8D5AA-5570-4EB6-88D3-3BA487822376}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E7CB88-5AED-456C-9856-EFBB3875F9A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13170" yWindow="8460" windowWidth="15630" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="112">
   <si>
     <t>編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,244 +68,298 @@
     <t>素</t>
   </si>
   <si>
-    <t>閒置中的餐點</t>
-  </si>
-  <si>
-    <t>冬粉</t>
-  </si>
-  <si>
-    <t>麵類(1)</t>
-  </si>
-  <si>
-    <t>關東煮(4)</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:50:56</t>
-  </si>
-  <si>
-    <t>烏龍麵</t>
-  </si>
-  <si>
-    <t>鍋燒麵</t>
-  </si>
-  <si>
-    <t>雞絲麵</t>
-  </si>
-  <si>
-    <t>保留</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:50:57</t>
-  </si>
-  <si>
-    <t>肉片(1份)</t>
-  </si>
-  <si>
-    <t>關東煮(2)</t>
-  </si>
-  <si>
-    <t>貢丸(1顆)</t>
-  </si>
-  <si>
-    <t>龍蝦丸(1顆)</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:50:58</t>
-  </si>
-  <si>
-    <t>魚包蛋(1顆)</t>
-  </si>
-  <si>
-    <t>黃金魚蛋(2顆)</t>
-  </si>
-  <si>
-    <t>鱈魚丸(2顆)</t>
-  </si>
-  <si>
-    <t>魚豆腐(2顆)</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:50:59</t>
-  </si>
-  <si>
-    <t>起司丸(2顆)</t>
-  </si>
-  <si>
-    <t>魚卵捲(3顆)</t>
-  </si>
-  <si>
-    <t>鳥蛋(3顆)</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:00</t>
-  </si>
-  <si>
-    <t>鑫鑫腸(一份)</t>
-  </si>
-  <si>
-    <t>魚餃(一份)</t>
-  </si>
-  <si>
-    <t>餛飩(一份)</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:01</t>
-  </si>
-  <si>
-    <t>黑輪(一份)</t>
-  </si>
-  <si>
-    <t>豬血糕(一份)</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:02</t>
-  </si>
-  <si>
-    <t>百頁(一份)</t>
-  </si>
-  <si>
-    <t>油豆腐(一份)</t>
-  </si>
-  <si>
-    <t>豆皮(一份)</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:03</t>
-  </si>
-  <si>
-    <t>甜不辣(一份)</t>
-  </si>
-  <si>
-    <t>年糕(一份)</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:04</t>
-  </si>
-  <si>
-    <t>滷蛋(一份)</t>
-  </si>
-  <si>
-    <t>菜頭(一份)</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:05</t>
-  </si>
-  <si>
-    <t>馬鈴薯(一份)</t>
-  </si>
-  <si>
-    <t>金針菇(一份)</t>
-  </si>
-  <si>
-    <t>豆芽菜(一份)</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:06</t>
-  </si>
-  <si>
-    <t>杏鮑菇(一份)</t>
-  </si>
-  <si>
-    <t>玉米筍(一份)</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:07</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:08</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:09</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:10</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:11</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:12</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:13</t>
-  </si>
-  <si>
-    <t>閒置(3)</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:14</t>
-  </si>
-  <si>
-    <t>香</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:15</t>
-  </si>
-  <si>
-    <t>雞排</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:16</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:17</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:18</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:19</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:20</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:21</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:22</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:23</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:24</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:25</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:26</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:27</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:28</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:29</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:30</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:31</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:32</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:33</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:34</t>
-  </si>
-  <si>
-    <t>2019-09-03-19:51:35</t>
+    <t>飯食部(1)</t>
+  </si>
+  <si>
+    <t>台灣小吃部(1)</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:09</t>
+  </si>
+  <si>
+    <t>海苔御飯糰</t>
+  </si>
+  <si>
+    <t>熱狗蛋炒飯</t>
+  </si>
+  <si>
+    <t>紅燒肉飯+二副菜</t>
+  </si>
+  <si>
+    <t>滷肉飯+二副菜</t>
+  </si>
+  <si>
+    <t>焗烤白醬飯+起司豬排</t>
+  </si>
+  <si>
+    <t>焗烤白醬麵+起司豬排</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:10</t>
+  </si>
+  <si>
+    <t>熱狗蛋炒飯+雞排</t>
+  </si>
+  <si>
+    <t>黑胡椒丼飯</t>
+  </si>
+  <si>
+    <t>韓式拌飯</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:11</t>
+  </si>
+  <si>
+    <t>牛肉粥</t>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:12</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:13</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:14</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:15</t>
+  </si>
+  <si>
+    <t>閒置的餐點</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:16</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:17</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:18</t>
+  </si>
+  <si>
+    <t>卡拉雞+三副菜</t>
+  </si>
+  <si>
+    <t>焗烤部(2)</t>
+  </si>
+  <si>
+    <t>起司豬排+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:19</t>
+  </si>
+  <si>
+    <t>蒜泥白肉+三副菜</t>
+  </si>
+  <si>
+    <t>烤肉飯+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:20</t>
+  </si>
+  <si>
+    <t>香煎無骨雞腿排+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:21</t>
+  </si>
+  <si>
+    <t>蒜香鹹豬肉+三副菜</t>
+  </si>
+  <si>
+    <t>浦燒魚飯+雞塊+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:22</t>
+  </si>
+  <si>
+    <t>鐵路豬排+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:23</t>
+  </si>
+  <si>
+    <t>無骨雞排飯+三副菜</t>
+  </si>
+  <si>
+    <t>雞腿飯+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:24</t>
+  </si>
+  <si>
+    <t>黑胡椒豬柳+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:25</t>
+  </si>
+  <si>
+    <t>原味小火鍋</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:26</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:27</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:28</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:29</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:30</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:31</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:32</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:33</t>
+  </si>
+  <si>
+    <t>張君雅泡乾麵+荷包蛋+青菜</t>
+  </si>
+  <si>
+    <t>麵食部(3)</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:34</t>
+  </si>
+  <si>
+    <t>台南擔仔乾麵+荷包蛋+小菜</t>
+  </si>
+  <si>
+    <t>乾粄條+小菜+蛋</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:35</t>
+  </si>
+  <si>
+    <t>牛肉湯麵</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:36</t>
+  </si>
+  <si>
+    <t>酸辣湯餃</t>
+  </si>
+  <si>
+    <t>味噌拉麵+蛋</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:37</t>
+  </si>
+  <si>
+    <t>麻辣湯麵(張君雅)+豬血+臭豆腐</t>
+  </si>
+  <si>
+    <t>牛肉麵</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:38</t>
+  </si>
+  <si>
+    <t>沙茶羊肉羹麵</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:39</t>
+  </si>
+  <si>
+    <t>麻辣湯張君雅+豬血+臭豆腐+肉片</t>
+  </si>
+  <si>
+    <t>味噌拉麵+蛋+卡拉雞</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:40</t>
+  </si>
+  <si>
+    <t>烤肉乾麵</t>
+  </si>
+  <si>
+    <t>酸辣湯麵 蛋 雞腿</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:41</t>
+  </si>
+  <si>
+    <t>貢丸豚骨麵</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:42</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:43</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:44</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:45</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:46</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:47</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:48</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:49</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:50</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:51</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:52</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:53</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:54</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:55</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:56</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:57</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:58</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:59</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:31:01</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:31:02</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:31:03</t>
+  </si>
+  <si>
+    <t>蔥抓餅+蛋+雞排2333</t>
   </si>
 </sst>
 </file>
@@ -894,7 +948,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -936,16 +990,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -954,24 +1008,24 @@
         <v>-1</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>302</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -983,24 +1037,24 @@
         <v>-1</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>303</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1012,24 +1066,24 @@
         <v>-1</v>
       </c>
       <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>304</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1041,97 +1095,97 @@
         <v>-1</v>
       </c>
       <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>305</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>-1</v>
       </c>
       <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>306</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>-1</v>
       </c>
       <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>307</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>-1</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
@@ -1139,28 +1193,28 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>-1</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
@@ -1168,13 +1222,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1186,10 +1240,10 @@
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
@@ -1197,13 +1251,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1215,24 +1269,24 @@
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1244,430 +1298,409 @@
         <v>-1</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>-1</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>313</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>30</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>314</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>-1</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>315</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>-1</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>316</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>-1</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>317</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>-1</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>318</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>-1</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>319</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>-1</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>320</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>-1</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>-1</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>-1</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24">
         <v>-1</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25">
         <v>-1</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>325</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>326</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1679,24 +1712,24 @@
         <v>-1</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>327</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1708,24 +1741,24 @@
         <v>-1</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>328</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1737,24 +1770,24 @@
         <v>-1</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>329</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1766,24 +1799,24 @@
         <v>-1</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1792,27 +1825,27 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
         <v>55</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1821,27 +1854,27 @@
         <v>10</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>332</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1853,24 +1886,24 @@
         <v>-1</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1882,24 +1915,24 @@
         <v>-1</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>334</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1911,24 +1944,24 @@
         <v>-1</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>335</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -1940,24 +1973,24 @@
         <v>-1</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>336</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1966,27 +1999,27 @@
         <v>11</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1995,27 +2028,24 @@
         <v>11</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>338</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -2024,27 +2054,27 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>339</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -2053,27 +2083,27 @@
         <v>11</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -2082,27 +2112,27 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -2111,27 +2141,27 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -2140,27 +2170,27 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -2169,27 +2199,27 @@
         <v>11</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -2198,27 +2228,27 @@
         <v>11</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C46">
-        <v>345</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -2227,27 +2257,27 @@
         <v>11</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>346</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -2256,27 +2286,27 @@
         <v>11</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>347</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -2285,27 +2315,27 @@
         <v>11</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G48" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>348</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -2314,27 +2344,27 @@
         <v>11</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G49" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>349</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -2343,27 +2373,27 @@
         <v>11</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -2372,375 +2402,375 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
         <v>68</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>352</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
         <v>68</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>353</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>-1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
         <v>71</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>354</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>-1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
         <v>73</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
-        <v>68</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>355</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>356</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>357</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>361</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>362</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>363</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -2749,27 +2779,27 @@
         <v>11</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>364</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -2778,27 +2808,24 @@
         <v>11</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>365</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -2807,27 +2834,24 @@
         <v>11</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>366</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -2836,27 +2860,27 @@
         <v>11</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>367</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -2865,27 +2889,27 @@
         <v>11</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>368</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -2894,27 +2918,27 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>369</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -2923,27 +2947,27 @@
         <v>11</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -2952,27 +2976,27 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>371</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -2981,27 +3005,27 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>372</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -3010,27 +3034,27 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -3039,27 +3063,27 @@
         <v>11</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -3068,27 +3092,27 @@
         <v>11</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -3097,27 +3121,27 @@
         <v>11</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -3126,27 +3150,27 @@
         <v>11</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -3155,27 +3179,27 @@
         <v>11</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G78" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -3184,27 +3208,27 @@
         <v>11</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -3213,27 +3237,27 @@
         <v>11</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G80" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -3242,27 +3266,27 @@
         <v>11</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -3271,27 +3295,27 @@
         <v>11</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G82" t="s">
         <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -3300,27 +3324,27 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>383</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -3329,27 +3353,27 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -3358,27 +3382,27 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>385</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -3387,27 +3411,27 @@
         <v>11</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G86" t="s">
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>386</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -3416,27 +3440,27 @@
         <v>11</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G87" t="s">
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>387</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -3445,27 +3469,27 @@
         <v>11</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G88" t="s">
         <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -3474,27 +3498,27 @@
         <v>11</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>389</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -3503,27 +3527,27 @@
         <v>11</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G90" t="s">
         <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>390</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -3532,27 +3556,27 @@
         <v>11</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G91" t="s">
         <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>391</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -3561,27 +3585,27 @@
         <v>11</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G92" t="s">
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>392</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -3590,27 +3614,27 @@
         <v>11</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G93" t="s">
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>393</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -3619,27 +3643,27 @@
         <v>11</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G94" t="s">
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>394</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -3648,27 +3672,27 @@
         <v>11</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G95" t="s">
         <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>395</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -3677,27 +3701,27 @@
         <v>11</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G96" t="s">
         <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>396</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
@@ -3706,27 +3730,27 @@
         <v>11</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>397</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -3735,27 +3759,27 @@
         <v>11</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>398</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -3764,27 +3788,27 @@
         <v>11</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>399</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -3793,27 +3817,27 @@
         <v>11</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G100" t="s">
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
@@ -3822,16 +3846,16 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G101" t="s">
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
